--- a/Varpas 1.xlsx
+++ b/Varpas 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -121,10 +121,10 @@
     <t>0</t>
   </si>
   <si>
+    <t>Jauns efwefew</t>
+  </si>
+  <si>
     <t>Signe Zalužinska</t>
-  </si>
-  <si>
-    <t>fwefwf wfwefwe</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
         <v>34</v>
       </c>
       <c r="K3">
-        <v>-431911</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>34</v>
@@ -813,10 +813,10 @@
         <v>34</v>
       </c>
       <c r="AF3">
-        <v>-431911</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-17996.291666666668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -847,11 +847,11 @@
       <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="J4" t="s">
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
         <v>34</v>
@@ -914,10 +914,10 @@
         <v>34</v>
       </c>
       <c r="AF4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG4">
-        <v>0.2916666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>

--- a/Varpas 1.xlsx
+++ b/Varpas 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t/>
   </si>
@@ -118,13 +118,25 @@
     <t>Nils Asejevs</t>
   </si>
   <si>
-    <t>0</t>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Signe Zalužinska</t>
+  </si>
+  <si>
+    <t>9.00</t>
   </si>
   <si>
     <t>Jauns efwefew</t>
-  </si>
-  <si>
-    <t>Signe Zalužinska</t>
   </si>
 </sst>
 </file>
@@ -520,7 +532,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -535,13 +547,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -556,13 +568,13 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -577,13 +589,13 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -598,13 +610,13 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" t="s">
@@ -621,303 +633,303 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="AG2">
-        <v>1.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.375</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Varpas 1.xlsx
+++ b/Varpas 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t/>
   </si>
@@ -109,6 +109,9 @@
     <t>30</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>Kopā</t>
   </si>
   <si>
@@ -118,25 +121,7 @@
     <t>Nils Asejevs</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>Signe Zalužinska</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>Jauns efwefew</t>
   </si>
 </sst>
 </file>
@@ -520,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AH3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="31" width="5" customWidth="1"/>
-    <col min="32" max="33" width="10" customWidth="1"/>
+    <col min="2" max="32" width="5" customWidth="1"/>
+    <col min="33" max="34" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,13 +529,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -565,13 +550,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -586,13 +571,13 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
@@ -607,13 +592,13 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
       <c r="AD1" t="s">
@@ -628,10 +613,13 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -640,100 +628,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>26</v>
+      </c>
+      <c r="AH2">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>54</v>
-      </c>
-      <c r="AG2">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -746,13 +737,13 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
@@ -761,19 +752,19 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
         <v>0</v>
       </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
@@ -788,13 +779,13 @@
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
@@ -809,13 +800,13 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>0</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
@@ -825,115 +816,17 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG1"/>
+  <autoFilter ref="A1:AH1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/Varpas 1.xlsx
+++ b/Varpas 1.xlsx
@@ -628,97 +628,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AH2">
-        <v>3.25</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.125</v>
       </c>
     </row>
   </sheetData>

--- a/Varpas 1.xlsx
+++ b/Varpas 1.xlsx
@@ -109,9 +109,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>Kopā</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Signe Zalužinska</t>
+  </si>
+  <si>
+    <t>Stīvs Džobs</t>
   </si>
 </sst>
 </file>
@@ -505,34 +505,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AG4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="32" width="5" customWidth="1"/>
-    <col min="33" max="34" width="10" customWidth="1"/>
+    <col min="2" max="31" width="5" customWidth="1"/>
+    <col min="32" max="33" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -541,19 +541,19 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -562,19 +562,19 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
       <c r="V1" t="s">
@@ -583,19 +583,19 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
       <c r="AC1" t="s">
@@ -604,7 +604,7 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AF1" t="s">
@@ -613,220 +613,312 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
-      <c r="AF2">
-        <v>9</v>
-      </c>
-      <c r="AG2">
-        <v>11</v>
-      </c>
-      <c r="AH2">
-        <v>1.375</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>9</v>
-      </c>
-      <c r="AG3">
-        <v>9</v>
-      </c>
-      <c r="AH3">
-        <v>1.125</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH1"/>
+  <autoFilter ref="A1:AG1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/Varpas 1.xlsx
+++ b/Varpas 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t/>
   </si>
@@ -109,19 +109,16 @@
     <t>30</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>Kopā</t>
   </si>
   <si>
     <t>Dienas</t>
   </si>
   <si>
-    <t>Nils Asejevs</t>
-  </si>
-  <si>
-    <t>Signe Zalužinska</t>
-  </si>
-  <si>
-    <t>Stīvs Džobs</t>
+    <t>Asejevs Nils</t>
   </si>
 </sst>
 </file>
@@ -505,31 +502,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AH2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="31" width="5" customWidth="1"/>
-    <col min="32" max="33" width="10" customWidth="1"/>
+    <col min="2" max="32" width="5" customWidth="1"/>
+    <col min="33" max="34" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -541,16 +538,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -562,16 +559,16 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U1" t="s">
@@ -583,16 +580,16 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB1" t="s">
@@ -604,7 +601,7 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
       <c r="AF1" t="s">
@@ -613,24 +610,27 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2">
@@ -642,16 +642,16 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2">
@@ -663,16 +663,16 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
         <v>0</v>
       </c>
       <c r="U2">
@@ -684,16 +684,16 @@
       <c r="W2">
         <v>0</v>
       </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
         <v>0</v>
       </c>
       <c r="AB2">
@@ -705,7 +705,7 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
@@ -714,211 +714,12 @@
       <c r="AG2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+      <c r="AH2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG1"/>
+  <autoFilter ref="A1:AH1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/Varpas 1.xlsx
+++ b/Varpas 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t/>
   </si>
@@ -118,7 +118,241 @@
     <t>Dienas</t>
   </si>
   <si>
+    <t>Skujiņš Ervins</t>
+  </si>
+  <si>
     <t>Asejevs Nils</t>
+  </si>
+  <si>
+    <t>Zalužinska Daiga</t>
+  </si>
+  <si>
+    <t>test test</t>
+  </si>
+  <si>
+    <t>Bētaks Sarmis</t>
+  </si>
+  <si>
+    <t>Ceriņš Jānis</t>
+  </si>
+  <si>
+    <t>Cjaurams Vladimirs</t>
+  </si>
+  <si>
+    <t>Cjaurams Vladislavs</t>
+  </si>
+  <si>
+    <t>Dementjevs Atis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elsis Normunds </t>
+  </si>
+  <si>
+    <t>Fiļipovičs Viktors</t>
+  </si>
+  <si>
+    <t>Gafurovs Aleksandrs</t>
+  </si>
+  <si>
+    <t>Jansone Laima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jansons Pēteris </t>
+  </si>
+  <si>
+    <t>Kanaviņš Ilmārs</t>
+  </si>
+  <si>
+    <t>Karnītis Mārtiņš</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kondratjevs Pēteris </t>
+  </si>
+  <si>
+    <t>Konstante Oksana</t>
+  </si>
+  <si>
+    <t>Krievups Māris</t>
+  </si>
+  <si>
+    <t>Kubliņa Ilvija</t>
+  </si>
+  <si>
+    <t>Kubliņš Vilmārs</t>
+  </si>
+  <si>
+    <t>Kudrjavcevs Genādijs</t>
+  </si>
+  <si>
+    <t>Lakstiņa Daiga</t>
+  </si>
+  <si>
+    <t>Lapsa Artis</t>
+  </si>
+  <si>
+    <t>Lilientāls Dzintars</t>
+  </si>
+  <si>
+    <t>Meļņiks Vasilijs</t>
+  </si>
+  <si>
+    <t>Metus Anatolijs</t>
+  </si>
+  <si>
+    <t>Mežītis Eduards</t>
+  </si>
+  <si>
+    <t>Pandalons Aigars</t>
+  </si>
+  <si>
+    <t>Persis Edijs</t>
+  </si>
+  <si>
+    <t>Porietis Mārtiņš</t>
+  </si>
+  <si>
+    <t>Rudīte Larisa</t>
+  </si>
+  <si>
+    <t>Skrastiņš Kaspars</t>
+  </si>
+  <si>
+    <t>Skrodele Ilma</t>
+  </si>
+  <si>
+    <t>Skrodelis Sandris</t>
+  </si>
+  <si>
+    <t>Staņa Jānis</t>
+  </si>
+  <si>
+    <t>Staņa Aneta</t>
+  </si>
+  <si>
+    <t>Stepanova Astrīda</t>
+  </si>
+  <si>
+    <t>Strazdiņš Ilmārs</t>
+  </si>
+  <si>
+    <t>Strods Laimonis</t>
+  </si>
+  <si>
+    <t>Studente Agnese</t>
+  </si>
+  <si>
+    <t>Šķiņķis Raivis</t>
+  </si>
+  <si>
+    <t>Šmits Raitis</t>
+  </si>
+  <si>
+    <t>Vallners Gerts Viārs</t>
+  </si>
+  <si>
+    <t>Valtiņš Dainis Aivars</t>
+  </si>
+  <si>
+    <t>Vītoliņš Aldis</t>
+  </si>
+  <si>
+    <t>Zālītis Agris</t>
+  </si>
+  <si>
+    <t>Zirnis Andis</t>
+  </si>
+  <si>
+    <t>Žagata Alvis</t>
+  </si>
+  <si>
+    <t>Meijers Ingus</t>
+  </si>
+  <si>
+    <t>Ozoliņš Aigars</t>
+  </si>
+  <si>
+    <t>Seļaņins Oļegs</t>
+  </si>
+  <si>
+    <t>Guļāns Ainārs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novikovs Ruslans </t>
+  </si>
+  <si>
+    <t>Dementjevs Gatis</t>
+  </si>
+  <si>
+    <t>Gūtmanis Raimonds</t>
+  </si>
+  <si>
+    <t>Jermacāns Jānis</t>
+  </si>
+  <si>
+    <t>Vērzemniece Dzidra</t>
+  </si>
+  <si>
+    <t>Veinbergs Uldis</t>
+  </si>
+  <si>
+    <t>Metus Vitalijs</t>
+  </si>
+  <si>
+    <t>Baltiņš Raimonds</t>
+  </si>
+  <si>
+    <t>Kalniņa Mirdza</t>
+  </si>
+  <si>
+    <t>Gailītis Jānis</t>
+  </si>
+  <si>
+    <t>Dragons Kārlis</t>
+  </si>
+  <si>
+    <t>Aumeisters Didzis</t>
+  </si>
+  <si>
+    <t>Vītols Roberts</t>
+  </si>
+  <si>
+    <t>Bernovskis Mareks</t>
+  </si>
+  <si>
+    <t>Ūdris Toms</t>
+  </si>
+  <si>
+    <t>Zalužinskis Elvijs</t>
+  </si>
+  <si>
+    <t>Kaukule Sandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poga Anrijs </t>
+  </si>
+  <si>
+    <t>Eglīte Mareks</t>
+  </si>
+  <si>
+    <t>Buža Niks</t>
+  </si>
+  <si>
+    <t>Jeršova Tatjana</t>
+  </si>
+  <si>
+    <t>Namnieks Ģirts</t>
+  </si>
+  <si>
+    <t>Zalužinska Signe</t>
+  </si>
+  <si>
+    <t>Zalužinska Ilze</t>
+  </si>
+  <si>
+    <t>Lazdiņa Ināra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skujiņš Mairis </t>
   </si>
 </sst>
 </file>
@@ -502,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AH80"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -523,16 +757,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -544,16 +778,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -565,16 +799,16 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
@@ -586,16 +820,16 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AD1" t="s">
@@ -619,45 +853,45 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
         <v>0</v>
       </c>
       <c r="P2">
@@ -669,16 +903,16 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
         <v>0</v>
       </c>
       <c r="W2">
@@ -690,16 +924,16 @@
       <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
         <v>0</v>
       </c>
       <c r="AD2">
@@ -712,10 +946,8122 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>142</v>
+      </c>
+      <c r="AH4">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>64</v>
+      </c>
+      <c r="AH6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>72</v>
+      </c>
+      <c r="AH7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>83</v>
+      </c>
+      <c r="AH8">
+        <v>10.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>72</v>
+      </c>
+      <c r="AH9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>76</v>
+      </c>
+      <c r="AH10">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>76</v>
+      </c>
+      <c r="AH11">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>75</v>
+      </c>
+      <c r="AH12">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>74</v>
+      </c>
+      <c r="AH13">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>73</v>
+      </c>
+      <c r="AH14">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>148</v>
+      </c>
+      <c r="AH16">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>75</v>
+      </c>
+      <c r="AH17">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>76</v>
+      </c>
+      <c r="AH18">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>73</v>
+      </c>
+      <c r="AH19">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>69</v>
+      </c>
+      <c r="AH20">
+        <v>8.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>73</v>
+      </c>
+      <c r="AH21">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>47</v>
+      </c>
+      <c r="AH22">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>78</v>
+      </c>
+      <c r="AH23">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>71</v>
+      </c>
+      <c r="AH24">
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>58</v>
+      </c>
+      <c r="AH25">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>74</v>
+      </c>
+      <c r="AH26">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>133</v>
+      </c>
+      <c r="AH27">
+        <v>16.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>73</v>
+      </c>
+      <c r="AH30">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>74</v>
+      </c>
+      <c r="AH31">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>11</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>101</v>
+      </c>
+      <c r="AH32">
+        <v>12.625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>12</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>49</v>
+      </c>
+      <c r="AH33">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>96</v>
+      </c>
+      <c r="AH35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>53</v>
+      </c>
+      <c r="AH36">
+        <v>6.625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>79</v>
+      </c>
+      <c r="AH37">
+        <v>9.875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>74</v>
+      </c>
+      <c r="AH38">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>74</v>
+      </c>
+      <c r="AH39">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>73</v>
+      </c>
+      <c r="AH40">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>73</v>
+      </c>
+      <c r="AH41">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>9</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>75</v>
+      </c>
+      <c r="AH42">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>11</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>93</v>
+      </c>
+      <c r="AH43">
+        <v>11.625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>74</v>
+      </c>
+      <c r="AH44">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>74</v>
+      </c>
+      <c r="AH46">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47" s="1">
+        <v>24</v>
+      </c>
+      <c r="H47" s="1">
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>132</v>
+      </c>
+      <c r="AH47">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>65</v>
+      </c>
+      <c r="AH48">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>47</v>
+      </c>
+      <c r="AH49">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>24</v>
+      </c>
+      <c r="G50" s="1">
+        <v>24</v>
+      </c>
+      <c r="H50" s="1">
+        <v>14</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>9</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>122</v>
+      </c>
+      <c r="AH50">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <v>9</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>73</v>
+      </c>
+      <c r="AH51">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="J52">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>75</v>
+      </c>
+      <c r="AH52">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>64</v>
+      </c>
+      <c r="AH53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <v>9</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>50</v>
+      </c>
+      <c r="AH54">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>18</v>
+      </c>
+      <c r="AH55">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>67</v>
+      </c>
+      <c r="AH56">
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>9</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>61</v>
+      </c>
+      <c r="AH57">
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>9</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>71</v>
+      </c>
+      <c r="AH58">
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>9</v>
+      </c>
+      <c r="J59">
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>75</v>
+      </c>
+      <c r="AH59">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="J60">
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <v>12</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>83</v>
+      </c>
+      <c r="AH60">
+        <v>10.375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>9</v>
+      </c>
+      <c r="J61">
+        <v>9</v>
+      </c>
+      <c r="K61">
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>72</v>
+      </c>
+      <c r="AH61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>9</v>
+      </c>
+      <c r="K62">
+        <v>9</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>75</v>
+      </c>
+      <c r="AH62">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>11</v>
+      </c>
+      <c r="H63" s="1">
+        <v>12</v>
+      </c>
+      <c r="I63">
+        <v>11</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>59</v>
+      </c>
+      <c r="AH63">
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1">
+        <v>12</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>12</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>59</v>
+      </c>
+      <c r="AH64">
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>12</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>74</v>
+      </c>
+      <c r="AH65">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>9</v>
+      </c>
+      <c r="J66">
+        <v>9</v>
+      </c>
+      <c r="K66">
+        <v>9</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>74</v>
+      </c>
+      <c r="AH66">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>12</v>
+      </c>
+      <c r="J67">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <v>12</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>101</v>
+      </c>
+      <c r="AH67">
+        <v>12.625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>11</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>24</v>
+      </c>
+      <c r="G68" s="1">
+        <v>24</v>
+      </c>
+      <c r="H68" s="1">
+        <v>14</v>
+      </c>
+      <c r="I68">
+        <v>12</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>17</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>149</v>
+      </c>
+      <c r="AH68">
+        <v>18.625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" s="1">
+        <v>11</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>12</v>
+      </c>
+      <c r="J69">
+        <v>12</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>86</v>
+      </c>
+      <c r="AH69">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1">
+        <v>12</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <v>12</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>103</v>
+      </c>
+      <c r="AH70">
+        <v>12.875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>9</v>
+      </c>
+      <c r="J72">
+        <v>9</v>
+      </c>
+      <c r="K72">
+        <v>9</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>37</v>
+      </c>
+      <c r="AH72">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>24</v>
+      </c>
+      <c r="G74" s="1">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1">
+        <v>24</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>113</v>
+      </c>
+      <c r="AH74">
+        <v>14.125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>9</v>
+      </c>
+      <c r="J75">
+        <v>9</v>
+      </c>
+      <c r="K75">
+        <v>9</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>75</v>
+      </c>
+      <c r="AH75">
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>9</v>
+      </c>
+      <c r="J76">
+        <v>9</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1">
+        <v>0</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>37</v>
+      </c>
+      <c r="AH76">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>9</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
+        <v>0</v>
+      </c>
+      <c r="V77" s="1">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>9</v>
+      </c>
+      <c r="AH77">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78">
+        <v>24</v>
+      </c>
+      <c r="C78">
+        <v>24</v>
+      </c>
+      <c r="D78">
+        <v>24</v>
+      </c>
+      <c r="E78">
+        <v>24</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78" s="1">
+        <v>0</v>
+      </c>
+      <c r="V78" s="1">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>112</v>
+      </c>
+      <c r="AH78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>9</v>
+      </c>
+      <c r="J79">
+        <v>8</v>
+      </c>
+      <c r="K79">
+        <v>9</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79" s="1">
+        <v>0</v>
+      </c>
+      <c r="V79" s="1">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>70</v>
+      </c>
+      <c r="AH79">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>9</v>
+      </c>
+      <c r="J80">
+        <v>17</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>79</v>
+      </c>
+      <c r="AH80">
+        <v>9.875</v>
       </c>
     </row>
   </sheetData>
